--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,81 +49,102 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>recession</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>problem</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -142,31 +163,46 @@
     <t>great</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>safety</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>relief</t>
   </si>
   <si>
     <t>better</t>
@@ -175,73 +211,97 @@
     <t>well</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>clean</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>give</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>save</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>available</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>home</t>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -599,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -739,16 +799,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -768,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8947368421052632</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C6">
         <v>32</v>
@@ -836,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.9661016949152542</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8620689655172413</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,16 +949,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.9083333333333333</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8461538461538461</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.9017857142857143</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L9">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1018,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8458904109589042</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C10">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.890625</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8378378378378378</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.8802816901408451</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,16 +1199,16 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.8780487804878049</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7692307692307693</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="L13">
         <v>45</v>
       </c>
-      <c r="K13">
-        <v>0.8679245283018868</v>
-      </c>
-      <c r="L13">
-        <v>92</v>
-      </c>
       <c r="M13">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7222222222222222</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,31 +1296,31 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>0.8780487804878049</v>
+      </c>
+      <c r="L14">
+        <v>72</v>
+      </c>
+      <c r="M14">
+        <v>72</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>10</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L14">
-        <v>44</v>
-      </c>
-      <c r="M14">
-        <v>44</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,16 +1349,16 @@
         <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6774193548387096</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.8448275862068966</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1428,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6486486486486487</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.8125</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L17">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="M17">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6065891472868217</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C18">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.7963446475195822</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L18">
-        <v>305</v>
+        <v>49</v>
       </c>
       <c r="M18">
-        <v>305</v>
+        <v>49</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,13 +1528,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5733333333333334</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.7936507936507936</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5234899328859061</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C20">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1536,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.776595744680851</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L20">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1560,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,13 +1628,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4509803921568628</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1586,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.7333333333333333</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1610,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1618,13 +1678,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4509803921568628</v>
+        <v>0.5910852713178295</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>305</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>305</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1636,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.7291666666666666</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1660,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,13 +1728,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4497354497354497</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C23">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1686,19 +1746,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.7254237288135593</v>
+        <v>0.80625</v>
       </c>
       <c r="L23">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="M23">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1710,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1718,13 +1778,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.423728813559322</v>
+        <v>0.5503355704697986</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1736,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.7222222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1768,13 +1828,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3777777777777778</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1786,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K25">
-        <v>0.7058823529411765</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1810,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1818,13 +1878,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3125</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1836,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K26">
-        <v>0.7037037037037037</v>
+        <v>0.776595744680851</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1860,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1868,13 +1928,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2987012987012987</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1886,19 +1946,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>0.6976744186046512</v>
+        <v>0.75</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1910,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1918,13 +1978,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2222222222222222</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1936,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K28">
-        <v>0.6911764705882353</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L28">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1960,397 +2020,905 @@
         <v>0</v>
       </c>
       <c r="Q28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.417989417989418</v>
+      </c>
+      <c r="C29">
+        <v>79</v>
+      </c>
+      <c r="D29">
+        <v>79</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>110</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29">
+        <v>0.7254237288135593</v>
+      </c>
+      <c r="L29">
+        <v>214</v>
+      </c>
+      <c r="M29">
+        <v>214</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L30">
+        <v>19</v>
+      </c>
+      <c r="M30">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.4</v>
+      </c>
+      <c r="C31">
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>54</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.275</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>22</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>58</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32">
+        <v>0.6888888888888889</v>
+      </c>
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.2698412698412698</v>
+      </c>
+      <c r="C33">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>68</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>184</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="L33">
+        <v>21</v>
+      </c>
+      <c r="M33">
+        <v>21</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.08847184986595175</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>340</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="L34">
+        <v>230</v>
+      </c>
+      <c r="M34">
+        <v>230</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L35">
+        <v>31</v>
+      </c>
+      <c r="M35">
+        <v>31</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36">
+        <v>0.6527196652719666</v>
+      </c>
+      <c r="L36">
+        <v>156</v>
+      </c>
+      <c r="M36">
+        <v>156</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K37">
+        <v>0.651685393258427</v>
+      </c>
+      <c r="L37">
+        <v>58</v>
+      </c>
+      <c r="M37">
+        <v>58</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38">
+        <v>0.65</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="L39">
+        <v>41</v>
+      </c>
+      <c r="M39">
+        <v>41</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40">
+        <v>0.6025641025641025</v>
+      </c>
+      <c r="L40">
+        <v>47</v>
+      </c>
+      <c r="M40">
+        <v>47</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41">
+        <v>0.589041095890411</v>
+      </c>
+      <c r="L41">
+        <v>43</v>
+      </c>
+      <c r="M41">
+        <v>43</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="L43">
+        <v>35</v>
+      </c>
+      <c r="M43">
+        <v>35</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K44">
+        <v>0.546875</v>
+      </c>
+      <c r="L44">
+        <v>35</v>
+      </c>
+      <c r="M44">
+        <v>35</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K45">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K46">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L46">
+        <v>20</v>
+      </c>
+      <c r="M46">
+        <v>20</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K47">
+        <v>0.475</v>
+      </c>
+      <c r="L47">
+        <v>19</v>
+      </c>
+      <c r="M47">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48">
+        <v>0.4067796610169492</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>24</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="L49">
+        <v>21</v>
+      </c>
+      <c r="M49">
+        <v>21</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K50">
+        <v>0.1984732824427481</v>
+      </c>
+      <c r="L50">
+        <v>26</v>
+      </c>
+      <c r="M50">
+        <v>26</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29">
-        <v>0.6853932584269663</v>
-      </c>
-      <c r="L29">
-        <v>61</v>
-      </c>
-      <c r="M29">
-        <v>61</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30">
-        <v>0.676923076923077</v>
-      </c>
-      <c r="L30">
-        <v>44</v>
-      </c>
-      <c r="M30">
-        <v>44</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31">
-        <v>0.6443514644351465</v>
-      </c>
-      <c r="L31">
-        <v>154</v>
-      </c>
-      <c r="M31">
-        <v>154</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K32">
-        <v>0.625</v>
-      </c>
-      <c r="L32">
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51">
+        <v>0.1650717703349282</v>
+      </c>
+      <c r="L51">
+        <v>69</v>
+      </c>
+      <c r="M51">
+        <v>69</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K52">
+        <v>0.1225961538461538</v>
+      </c>
+      <c r="L52">
+        <v>51</v>
+      </c>
+      <c r="M52">
+        <v>51</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="L53">
+        <v>53</v>
+      </c>
+      <c r="M53">
+        <v>53</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K54">
+        <v>0.0447427293064877</v>
+      </c>
+      <c r="L54">
+        <v>40</v>
+      </c>
+      <c r="M54">
+        <v>40</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K55">
+        <v>0.03543913713405239</v>
+      </c>
+      <c r="L55">
+        <v>23</v>
+      </c>
+      <c r="M55">
+        <v>24</v>
+      </c>
+      <c r="N55">
+        <v>0.96</v>
+      </c>
+      <c r="O55">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K56">
+        <v>0.01119925338310779</v>
+      </c>
+      <c r="L56">
+        <v>24</v>
+      </c>
+      <c r="M56">
+        <v>24</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K57">
+        <v>0.007407407407407408</v>
+      </c>
+      <c r="L57">
+        <v>23</v>
+      </c>
+      <c r="M57">
         <v>25</v>
       </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K33">
-        <v>0.609375</v>
-      </c>
-      <c r="L33">
-        <v>39</v>
-      </c>
-      <c r="M33">
-        <v>39</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34">
-        <v>0.5897435897435898</v>
-      </c>
-      <c r="L34">
-        <v>46</v>
-      </c>
-      <c r="M34">
-        <v>46</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K35">
-        <v>0.58</v>
-      </c>
-      <c r="L35">
-        <v>29</v>
-      </c>
-      <c r="M35">
-        <v>29</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K36">
-        <v>0.5753424657534246</v>
-      </c>
-      <c r="L36">
-        <v>42</v>
-      </c>
-      <c r="M36">
-        <v>42</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K37">
-        <v>0.574468085106383</v>
-      </c>
-      <c r="L37">
-        <v>27</v>
-      </c>
-      <c r="M37">
-        <v>27</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K38">
-        <v>0.5571428571428572</v>
-      </c>
-      <c r="L38">
-        <v>39</v>
-      </c>
-      <c r="M38">
-        <v>39</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K39">
-        <v>0.459016393442623</v>
-      </c>
-      <c r="L39">
-        <v>28</v>
-      </c>
-      <c r="M39">
-        <v>28</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K40">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L40">
-        <v>19</v>
-      </c>
-      <c r="M40">
-        <v>19</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K41">
-        <v>0.423728813559322</v>
-      </c>
-      <c r="L41">
-        <v>25</v>
-      </c>
-      <c r="M41">
-        <v>25</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K42">
-        <v>0.1076555023923445</v>
-      </c>
-      <c r="L42">
-        <v>45</v>
-      </c>
-      <c r="M42">
-        <v>45</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K43">
-        <v>0.09302325581395349</v>
-      </c>
-      <c r="L43">
-        <v>20</v>
-      </c>
-      <c r="M43">
-        <v>20</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>195</v>
+      <c r="N57">
+        <v>0.92</v>
+      </c>
+      <c r="O57">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3082</v>
       </c>
     </row>
   </sheetData>
